--- a/server/dummy_product_upload.xlsx
+++ b/server/dummy_product_upload.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -443,15 +443,27 @@
         <v>Tags</v>
       </c>
       <c r="N1" t="str">
+        <v>Type</v>
+      </c>
+      <c r="O1" t="str">
+        <v>Fabric</v>
+      </c>
+      <c r="P1" t="str">
+        <v>Style</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>Work</v>
+      </c>
+      <c r="R1" t="str">
         <v>MainImage</v>
       </c>
-      <c r="O1" t="str">
+      <c r="S1" t="str">
         <v>HoverImage</v>
       </c>
-      <c r="P1" t="str">
+      <c r="T1" t="str">
         <v>Images</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="U1" t="str">
         <v>Variants</v>
       </c>
     </row>
@@ -496,15 +508,27 @@
         <v>Silk, Zari, Red</v>
       </c>
       <c r="N2" t="str">
+        <v>Unstitched</v>
+      </c>
+      <c r="O2" t="str">
+        <v>Silk</v>
+      </c>
+      <c r="P2" t="str">
+        <v>Kanjivaram</v>
+      </c>
+      <c r="Q2" t="str">
+        <v>Zari</v>
+      </c>
+      <c r="R2" t="str">
         <v>silk_saree_main.jpg</v>
       </c>
-      <c r="O2" t="str">
+      <c r="S2" t="str">
         <v>silk_saree_hover.jpg</v>
       </c>
-      <c r="P2" t="str">
+      <c r="T2" t="str">
         <v>silk_saree_1.jpg, silk_saree_2.jpg</v>
       </c>
-      <c r="Q2" t="str">
+      <c r="U2" t="str">
         <v>[{"color":{"name":"Red","code":"#FF0000"},"v_sku":"SBS-SILK-001-RED","sizes":[{"name":"Free Size","stock":50,"price":4500,"discountPrice":4000}],"imageFilename":"silk_saree_red.jpg"},{"color":{"name":"Blue","code":"#0000FF"},"v_sku":"SBS-SILK-001-BLUE","sizes":[{"name":"Free Size","stock":50,"price":4500,"discountPrice":4000}],"imageFilename":"silk_saree_blue.jpg"}]</v>
       </c>
     </row>
@@ -549,21 +573,33 @@
         <v>Georgette, Print, Lightweight</v>
       </c>
       <c r="N3" t="str">
+        <v>Unstitched</v>
+      </c>
+      <c r="O3" t="str">
+        <v>Georgette</v>
+      </c>
+      <c r="P3" t="str">
+        <v>Printed</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>Digital Print</v>
+      </c>
+      <c r="R3" t="str">
         <v>geo_print_main.jpg</v>
       </c>
-      <c r="O3" t="str">
+      <c r="S3" t="str">
         <v>geo_print_hover.jpg</v>
       </c>
-      <c r="P3" t="str">
+      <c r="T3" t="str">
         <v/>
       </c>
-      <c r="Q3" t="str">
+      <c r="U3" t="str">
         <v>[{"color":{"name":"Green","code":"#008000"},"v_sku":"SBS-GEO-002-GRN","sizes":[{"name":"Free Size","stock":80,"price":2200,"discountPrice":1800}],"imageFilename":"geo_print_green.jpg"}]</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:Q3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:U3"/>
   </ignoredErrors>
 </worksheet>
 </file>